--- a/process.xlsx
+++ b/process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>公司全称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,123 +187,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上广深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>787520620@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已参加笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（C++）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘风而御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师/自然语言工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panyu1991@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>787520620@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未参加笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音频软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上广深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>787520620@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已投递</t>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.meituan.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已参加笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师（C++）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘风而御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发工程师/自然语言工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>panyu1991@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深信服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>787520620@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,9 +687,10 @@
     <col min="3" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +712,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -720,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -739,8 +755,11 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -760,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -780,10 +799,10 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -803,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -823,10 +842,10 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -846,10 +865,10 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -872,113 +891,116 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>9.6</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>9.6</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>58</v>
       </c>
       <c r="B12">
         <v>9.6</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
       </c>
       <c r="E12">
         <v>15623939610</v>
       </c>
       <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>62</v>
       </c>
       <c r="B13">
         <v>9.8000000000000007</v>
       </c>
       <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>67</v>
       </c>
       <c r="B14">
         <v>9.8000000000000007</v>
       </c>
       <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +1015,9 @@
     <hyperlink ref="E10" r:id="rId7"/>
     <hyperlink ref="E13" r:id="rId8"/>
     <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="H12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
 </worksheet>
 </file>